--- a/assets/salary_excel/salary_entry_12_2020.xlsx
+++ b/assets/salary_excel/salary_entry_12_2020.xlsx
@@ -467,7 +467,7 @@
         <v>3750</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>5000</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -582,7 +582,7 @@
         <v>4000</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -605,10 +605,10 @@
         <v>10000</v>
       </c>
       <c r="F8">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
